--- a/province/province_region.xlsx
+++ b/province/province_region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B1284-94DD-4670-9E80-A0B845B7C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD53C49-435A-45A6-92F2-CA51BC75D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5C2C800-D855-4103-98FE-AC269004CEE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="363" xr2:uid="{B5C2C800-D855-4103-98FE-AC269004CEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="tha_admbnda_adm1_rtsd_20220121" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="261">
   <si>
     <t>ADM1_EN</t>
   </si>
@@ -814,33 +814,184 @@
     <t>ภาคเหนือ</t>
   </si>
   <si>
-    <t>ภาคใต้ตอน</t>
-  </si>
-  <si>
     <t>https://th.wikipedia.org/wiki/ISO_3166-2:TH</t>
+  </si>
+  <si>
+    <t>ภาคใต้</t>
+  </si>
+  <si>
+    <t>เมืองรอง</t>
+  </si>
+  <si>
+    <t>เมืองหลัก</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="18">
+    <numFmt numFmtId="164" formatCode="#,##0.00,,&quot;m&quot;_);[Red]\(#,##0.00,,&quot;m&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00%_);[Red]\(0.00%\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;  &quot;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;   &quot;@"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="169" formatCode="#,##0,,_);[Red]\(#,##0,,\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0,,&quot;m&quot;_);[Red]\(#,##0,,&quot;m&quot;\)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00,,_);[Red]\(#,##0.00,,\)"/>
+    <numFmt numFmtId="172" formatCode="@_)"/>
+    <numFmt numFmtId="173" formatCode="[$-1070000]d\ mmm\ yyyy_);@_)"/>
+    <numFmt numFmtId="174" formatCode="[$-D07041E]#,##0.00_);@_)"/>
+    <numFmt numFmtId="175" formatCode="General_)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\-#,##0_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\-#,##0.00_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy_);@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0,_);[Red]\(#,##0,\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0,&quot;K&quot;_);[Red]\(#,##0,&quot;K&quot;\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0,&quot;K&quot;_);[Red]\(#,##0.0,&quot;K&quot;\)"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14996795556505021"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF728E3A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF8064A2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF626262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="6"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -848,16 +999,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="double">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="32">
+    <cellStyle name="Calculation 2" xfId="3" xr:uid="{7C68DA5F-7C0F-4931-BAFE-E3D1A0B976F4}"/>
+    <cellStyle name="Check Cell 2" xfId="16" xr:uid="{0BF39291-7620-4FA7-876E-634B5031BA5A}"/>
+    <cellStyle name="Comma (0)" xfId="10" xr:uid="{56F3DC5C-69D2-466D-9AFB-0EF4D3C90F92}"/>
+    <cellStyle name="Comma (2 th)" xfId="20" xr:uid="{41B204F0-EDD5-483D-8D1A-2F83F9EB1287}"/>
+    <cellStyle name="Comma (2)" xfId="11" xr:uid="{7D66FA9D-3212-4A90-A4F3-DBEB08E34E3E}"/>
+    <cellStyle name="Comma (4)" xfId="12" xr:uid="{1954F6FE-6DD1-40DC-AD34-819972DF0268}"/>
+    <cellStyle name="Darker" xfId="21" xr:uid="{0CB9DF9D-C5A2-46C0-822C-0438966537FC}"/>
+    <cellStyle name="Date (en short)" xfId="22" xr:uid="{1C76C1F1-F802-495E-98A7-42BC7C40021D}"/>
+    <cellStyle name="Date (th short)" xfId="19" xr:uid="{D7544CD6-C38A-433C-A457-5AE0E6F7C61F}"/>
+    <cellStyle name="Explanatory Text 2" xfId="9" xr:uid="{7A7A175E-E85C-44E5-A7A4-72BE93D71570}"/>
+    <cellStyle name="Heading 1 2" xfId="24" xr:uid="{9C790EB1-E09F-445C-A8C9-BCD44C5C9936}"/>
+    <cellStyle name="Heading 2 2" xfId="25" xr:uid="{102DE61F-4070-4992-B2C6-6F1E70621C58}"/>
+    <cellStyle name="Heading 3 2" xfId="26" xr:uid="{228402FD-3523-4715-BE7D-46CC7780E181}"/>
+    <cellStyle name="Heading 4 2" xfId="28" xr:uid="{113C478F-535F-44EE-AE3A-9F606C0155D2}"/>
+    <cellStyle name="Indent 2" xfId="14" xr:uid="{8DAD574C-7234-4026-A40F-56BE4A784BF8}"/>
+    <cellStyle name="Indent 3" xfId="15" xr:uid="{380C7CF2-B5BD-447D-8FED-368605CF0908}"/>
+    <cellStyle name="Input 2" xfId="2" xr:uid="{DB973BAC-2BFF-4A46-B4B9-7C253B39A850}"/>
+    <cellStyle name="Lighter" xfId="23" xr:uid="{2437BEE5-7A17-4CF5-82E1-7FAAE0070EA9}"/>
+    <cellStyle name="Million (0)" xfId="6" xr:uid="{10A5EF06-C621-4049-8BB0-1AE366B44EA9}"/>
+    <cellStyle name="Million (0m)" xfId="7" xr:uid="{1A8C9237-E092-4CA3-8AE7-BEDA421DDDB8}"/>
+    <cellStyle name="Million (2)" xfId="5" xr:uid="{5341ACE5-9749-4600-BF5C-CC1982D2AF7C}"/>
+    <cellStyle name="Million (2m)" xfId="8" xr:uid="{BB4B2088-4612-4130-8B70-8ED38D01D077}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00EC5B69-22AE-48C9-9A57-67BC07D16074}"/>
+    <cellStyle name="Output 2" xfId="4" xr:uid="{1F2AE2F9-735E-4B86-84BF-664AAD43278D}"/>
+    <cellStyle name="Percent 2" xfId="13" xr:uid="{0B0E6A40-7209-4FDC-9518-0320ACD488A6}"/>
+    <cellStyle name="Right" xfId="18" xr:uid="{CBAE0BD9-27BE-4D21-8A07-86B55DF9F827}"/>
+    <cellStyle name="thousand (0)" xfId="29" xr:uid="{3A352A45-EB5E-41AC-9145-ACF3E26E7A40}"/>
+    <cellStyle name="thousand (1K)" xfId="31" xr:uid="{BE4EC5B0-93F8-4AC5-A6C9-66838A63059B}"/>
+    <cellStyle name="thousand (K)" xfId="30" xr:uid="{26CA8FA0-81AC-4DDA-97C6-975E957C1366}"/>
+    <cellStyle name="Title 2" xfId="27" xr:uid="{AE2446B3-CA52-4516-9338-60D2338E8D1D}"/>
+    <cellStyle name="Total 2" xfId="17" xr:uid="{E1F914E0-4D7C-4E53-87BF-8C74F5ADB86E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,26 +1439,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D748D-C36A-46A8-8C99-CC7E3AA763CF}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1479,11 @@
       <c r="H1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1241,8 +1510,11 @@
         <f>_xlfn.XLOOKUP(MID($C2,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,8 +1541,11 @@
         <f>_xlfn.XLOOKUP(MID($C3,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,8 +1572,11 @@
         <f>_xlfn.XLOOKUP(MID($C4,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,8 +1603,11 @@
         <f>_xlfn.XLOOKUP(MID($C5,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1353,8 +1634,11 @@
         <f>_xlfn.XLOOKUP(MID($C6,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,8 +1665,11 @@
         <f>_xlfn.XLOOKUP(MID($C7,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1409,8 +1696,11 @@
         <f>_xlfn.XLOOKUP(MID($C8,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1437,8 +1727,11 @@
         <f>_xlfn.XLOOKUP(MID($C9,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1465,8 +1758,11 @@
         <f>_xlfn.XLOOKUP(MID($C10,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1493,8 +1789,11 @@
         <f>_xlfn.XLOOKUP(MID($C11,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคกลาง</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1521,8 +1820,11 @@
         <f>_xlfn.XLOOKUP(MID($C12,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1549,8 +1851,11 @@
         <f>_xlfn.XLOOKUP(MID($C13,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1577,8 +1882,11 @@
         <f>_xlfn.XLOOKUP(MID($C14,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1605,8 +1913,11 @@
         <f>_xlfn.XLOOKUP(MID($C15,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1633,8 +1944,11 @@
         <f>_xlfn.XLOOKUP(MID($C16,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1661,8 +1975,11 @@
         <f>_xlfn.XLOOKUP(MID($C17,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1689,8 +2006,11 @@
         <f>_xlfn.XLOOKUP(MID($C18,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1717,8 +2037,11 @@
         <f>_xlfn.XLOOKUP(MID($C19,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1745,8 +2068,11 @@
         <f>_xlfn.XLOOKUP(MID($C20,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1773,8 +2099,11 @@
         <f>_xlfn.XLOOKUP(MID($C21,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1801,8 +2130,11 @@
         <f>_xlfn.XLOOKUP(MID($C22,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1829,8 +2161,11 @@
         <f>_xlfn.XLOOKUP(MID($C23,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1857,8 +2192,11 @@
         <f>_xlfn.XLOOKUP(MID($C24,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -1885,8 +2223,11 @@
         <f>_xlfn.XLOOKUP(MID($C25,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -1913,8 +2254,11 @@
         <f>_xlfn.XLOOKUP(MID($C26,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -1941,8 +2285,11 @@
         <f>_xlfn.XLOOKUP(MID($C27,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -1969,8 +2316,11 @@
         <f>_xlfn.XLOOKUP(MID($C28,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1997,8 +2347,11 @@
         <f>_xlfn.XLOOKUP(MID($C29,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -2025,8 +2378,11 @@
         <f>_xlfn.XLOOKUP(MID($C30,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2053,8 +2409,11 @@
         <f>_xlfn.XLOOKUP(MID($C31,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -2081,8 +2440,11 @@
         <f>_xlfn.XLOOKUP(MID($C32,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2109,8 +2471,11 @@
         <f>_xlfn.XLOOKUP(MID($C33,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -2137,8 +2502,11 @@
         <f>_xlfn.XLOOKUP(MID($C34,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -2165,8 +2533,11 @@
         <f>_xlfn.XLOOKUP(MID($C35,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -2193,8 +2564,11 @@
         <f>_xlfn.XLOOKUP(MID($C36,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -2221,8 +2595,11 @@
         <f>_xlfn.XLOOKUP(MID($C37,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2249,8 +2626,11 @@
         <f>_xlfn.XLOOKUP(MID($C38,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2277,8 +2657,11 @@
         <f>_xlfn.XLOOKUP(MID($C39,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือ</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -2305,8 +2688,11 @@
         <f>_xlfn.XLOOKUP(MID($C40,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>126</v>
       </c>
@@ -2333,8 +2719,11 @@
         <f>_xlfn.XLOOKUP(MID($C41,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -2361,8 +2750,11 @@
         <f>_xlfn.XLOOKUP(MID($C42,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -2389,8 +2781,11 @@
         <f>_xlfn.XLOOKUP(MID($C43,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
@@ -2417,8 +2812,11 @@
         <f>_xlfn.XLOOKUP(MID($C44,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -2445,8 +2843,11 @@
         <f>_xlfn.XLOOKUP(MID($C45,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -2473,8 +2874,11 @@
         <f>_xlfn.XLOOKUP(MID($C46,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
@@ -2501,8 +2905,11 @@
         <f>_xlfn.XLOOKUP(MID($C47,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>147</v>
       </c>
@@ -2529,8 +2936,11 @@
         <f>_xlfn.XLOOKUP(MID($C48,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -2557,8 +2967,11 @@
         <f>_xlfn.XLOOKUP(MID($C49,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -2585,8 +2998,11 @@
         <f>_xlfn.XLOOKUP(MID($C50,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
@@ -2613,8 +3029,11 @@
         <f>_xlfn.XLOOKUP(MID($C51,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>159</v>
       </c>
@@ -2641,8 +3060,11 @@
         <f>_xlfn.XLOOKUP(MID($C52,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
@@ -2669,8 +3091,11 @@
         <f>_xlfn.XLOOKUP(MID($C53,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -2697,8 +3122,11 @@
         <f>_xlfn.XLOOKUP(MID($C54,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>168</v>
       </c>
@@ -2725,8 +3153,11 @@
         <f>_xlfn.XLOOKUP(MID($C55,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>171</v>
       </c>
@@ -2753,8 +3184,11 @@
         <f>_xlfn.XLOOKUP(MID($C56,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคเหนือ</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>174</v>
       </c>
@@ -2781,8 +3215,11 @@
         <f>_xlfn.XLOOKUP(MID($C57,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>177</v>
       </c>
@@ -2809,8 +3246,11 @@
         <f>_xlfn.XLOOKUP(MID($C58,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>180</v>
       </c>
@@ -2837,8 +3277,11 @@
         <f>_xlfn.XLOOKUP(MID($C59,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -2865,8 +3308,11 @@
         <f>_xlfn.XLOOKUP(MID($C60,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>186</v>
       </c>
@@ -2893,8 +3339,11 @@
         <f>_xlfn.XLOOKUP(MID($C61,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -2921,8 +3370,11 @@
         <f>_xlfn.XLOOKUP(MID($C62,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>192</v>
       </c>
@@ -2949,8 +3401,11 @@
         <f>_xlfn.XLOOKUP(MID($C63,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -2977,8 +3432,11 @@
         <f>_xlfn.XLOOKUP(MID($C64,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -3003,10 +3461,13 @@
       </c>
       <c r="H65" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C65,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>201</v>
       </c>
@@ -3031,10 +3492,13 @@
       </c>
       <c r="H66" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C66,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3059,10 +3523,13 @@
       </c>
       <c r="H67" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C67,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -3087,10 +3554,13 @@
       </c>
       <c r="H68" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C68,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>210</v>
       </c>
@@ -3115,10 +3585,13 @@
       </c>
       <c r="H69" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C69,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>213</v>
       </c>
@@ -3143,10 +3616,13 @@
       </c>
       <c r="H70" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C70,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>216</v>
       </c>
@@ -3171,10 +3647,13 @@
       </c>
       <c r="H71" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C71,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>219</v>
       </c>
@@ -3199,10 +3678,13 @@
       </c>
       <c r="H72" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C72,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -3227,10 +3709,13 @@
       </c>
       <c r="H73" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C73,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I73" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>225</v>
       </c>
@@ -3255,10 +3740,13 @@
       </c>
       <c r="H74" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C74,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>228</v>
       </c>
@@ -3283,10 +3771,13 @@
       </c>
       <c r="H75" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C75,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>231</v>
       </c>
@@ -3311,10 +3802,13 @@
       </c>
       <c r="H76" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C76,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>234</v>
       </c>
@@ -3339,10 +3833,13 @@
       </c>
       <c r="H77" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C77,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>237</v>
       </c>
@@ -3367,7 +3864,10 @@
       </c>
       <c r="H78" s="1" t="str">
         <f>_xlfn.XLOOKUP(MID($C78,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้ตอน</v>
+        <v>ภาคใต้</v>
+      </c>
+      <c r="I78" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3380,162 +3880,163 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
+    <col min="1" max="1" width="37.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>240</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B11" si="0">LEFT(A3,1)</f>
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f>MID(A3,9,100)</f>
+        <f t="shared" ref="C3:C11" si="1">MID(A3,9,100)</f>
         <v>ภาคกลาง</v>
       </c>
       <c r="D3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>241</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f>MID(A4,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคตะวันออก</v>
       </c>
       <c r="D4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>242</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" t="str">
-        <f>MID(A5,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
       <c r="D5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>243</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" t="str">
-        <f>MID(A6,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
       <c r="D6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>244</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" t="str">
-        <f>MID(A7,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคเหนือตอนบน</v>
       </c>
       <c r="D7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>245</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" t="str">
-        <f>MID(A8,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
       <c r="D8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>246</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" t="str">
-        <f>MID(A9,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคตะวันตก</v>
       </c>
       <c r="D9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>247</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" t="str">
-        <f>MID(A10,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคใต้ตอนบน</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>248</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" t="str">
-        <f>MID(A11,9,100)</f>
+        <f t="shared" si="1"/>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/province/province_region.xlsx
+++ b/province/province_region.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD53C49-435A-45A6-92F2-CA51BC75D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C44725-5804-4F92-8293-3217FD695B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="363" xr2:uid="{B5C2C800-D855-4103-98FE-AC269004CEE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" xr2:uid="{B5C2C800-D855-4103-98FE-AC269004CEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="tha_admbnda_adm1_rtsd_20220121" sheetId="2" r:id="rId1"/>
     <sheet name="region" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tha_admbnda_adm1_rtsd_20220121!$A$1:$I$78</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="261">
   <si>
     <t>ADM1_EN</t>
   </si>
@@ -1441,17 +1444,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D748D-C36A-46A8-8C99-CC7E3AA763CF}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1506,9 +1511,8 @@
         <f>_xlfn.XLOOKUP(MID($C2,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C2,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H2" t="s">
+        <v>251</v>
       </c>
       <c r="I2" t="s">
         <v>259</v>
@@ -1537,9 +1541,8 @@
         <f>_xlfn.XLOOKUP(MID($C3,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C3,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H3" t="s">
+        <v>251</v>
       </c>
       <c r="I3" t="s">
         <v>259</v>
@@ -1568,9 +1571,8 @@
         <f>_xlfn.XLOOKUP(MID($C4,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C4,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H4" t="s">
+        <v>251</v>
       </c>
       <c r="I4" t="s">
         <v>259</v>
@@ -1599,9 +1601,8 @@
         <f>_xlfn.XLOOKUP(MID($C5,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C5,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H5" t="s">
+        <v>251</v>
       </c>
       <c r="I5" t="s">
         <v>259</v>
@@ -1630,9 +1631,8 @@
         <f>_xlfn.XLOOKUP(MID($C6,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C6,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H6" t="s">
+        <v>251</v>
       </c>
       <c r="I6" t="s">
         <v>259</v>
@@ -1661,9 +1661,8 @@
         <f>_xlfn.XLOOKUP(MID($C7,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C7,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H7" t="s">
+        <v>251</v>
       </c>
       <c r="I7" t="s">
         <v>258</v>
@@ -1692,9 +1691,8 @@
         <f>_xlfn.XLOOKUP(MID($C8,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C8,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H8" t="s">
+        <v>251</v>
       </c>
       <c r="I8" t="s">
         <v>258</v>
@@ -1723,9 +1721,8 @@
         <f>_xlfn.XLOOKUP(MID($C9,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C9,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H9" t="s">
+        <v>251</v>
       </c>
       <c r="I9" t="s">
         <v>258</v>
@@ -1754,9 +1751,8 @@
         <f>_xlfn.XLOOKUP(MID($C10,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C10,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H10" t="s">
+        <v>251</v>
       </c>
       <c r="I10" t="s">
         <v>258</v>
@@ -1785,9 +1781,8 @@
         <f>_xlfn.XLOOKUP(MID($C11,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคกลาง</v>
       </c>
-      <c r="H11" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C11,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคกลาง</v>
+      <c r="H11" t="s">
+        <v>251</v>
       </c>
       <c r="I11" t="s">
         <v>259</v>
@@ -1816,9 +1811,8 @@
         <f>_xlfn.XLOOKUP(MID($C12,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C12,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H12" t="s">
+        <v>252</v>
       </c>
       <c r="I12" t="s">
         <v>259</v>
@@ -1847,9 +1841,8 @@
         <f>_xlfn.XLOOKUP(MID($C13,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C13,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H13" t="s">
+        <v>252</v>
       </c>
       <c r="I13" t="s">
         <v>259</v>
@@ -1878,9 +1871,8 @@
         <f>_xlfn.XLOOKUP(MID($C14,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H14" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C14,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H14" t="s">
+        <v>252</v>
       </c>
       <c r="I14" t="s">
         <v>258</v>
@@ -1909,9 +1901,8 @@
         <f>_xlfn.XLOOKUP(MID($C15,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H15" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C15,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H15" t="s">
+        <v>252</v>
       </c>
       <c r="I15" t="s">
         <v>258</v>
@@ -1940,9 +1931,8 @@
         <f>_xlfn.XLOOKUP(MID($C16,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C16,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H16" t="s">
+        <v>252</v>
       </c>
       <c r="I16" t="s">
         <v>259</v>
@@ -1971,9 +1961,8 @@
         <f>_xlfn.XLOOKUP(MID($C17,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H17" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C17,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H17" t="s">
+        <v>252</v>
       </c>
       <c r="I17" t="s">
         <v>258</v>
@@ -2002,9 +1991,8 @@
         <f>_xlfn.XLOOKUP(MID($C18,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C18,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H18" t="s">
+        <v>251</v>
       </c>
       <c r="I18" t="s">
         <v>258</v>
@@ -2033,9 +2021,8 @@
         <f>_xlfn.XLOOKUP(MID($C19,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออก</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C19,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออก</v>
+      <c r="H19" t="s">
+        <v>252</v>
       </c>
       <c r="I19" t="s">
         <v>258</v>
@@ -2064,9 +2051,8 @@
         <f>_xlfn.XLOOKUP(MID($C20,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H20" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C20,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H20" t="s">
+        <v>254</v>
       </c>
       <c r="I20" t="s">
         <v>259</v>
@@ -2095,9 +2081,8 @@
         <f>_xlfn.XLOOKUP(MID($C21,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H21" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C21,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H21" t="s">
+        <v>254</v>
       </c>
       <c r="I21" t="s">
         <v>258</v>
@@ -2126,9 +2111,8 @@
         <f>_xlfn.XLOOKUP(MID($C22,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H22" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C22,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H22" t="s">
+        <v>254</v>
       </c>
       <c r="I22" t="s">
         <v>258</v>
@@ -2157,9 +2141,8 @@
         <f>_xlfn.XLOOKUP(MID($C23,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H23" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C23,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H23" t="s">
+        <v>254</v>
       </c>
       <c r="I23" t="s">
         <v>258</v>
@@ -2188,9 +2171,8 @@
         <f>_xlfn.XLOOKUP(MID($C24,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C24,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H24" t="s">
+        <v>254</v>
       </c>
       <c r="I24" t="s">
         <v>258</v>
@@ -2219,9 +2201,8 @@
         <f>_xlfn.XLOOKUP(MID($C25,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C25,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H25" t="s">
+        <v>254</v>
       </c>
       <c r="I25" t="s">
         <v>258</v>
@@ -2250,9 +2231,8 @@
         <f>_xlfn.XLOOKUP(MID($C26,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H26" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C26,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H26" t="s">
+        <v>254</v>
       </c>
       <c r="I26" t="s">
         <v>258</v>
@@ -2281,9 +2261,8 @@
         <f>_xlfn.XLOOKUP(MID($C27,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C27,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H27" t="s">
+        <v>254</v>
       </c>
       <c r="I27" t="s">
         <v>258</v>
@@ -2312,9 +2291,8 @@
         <f>_xlfn.XLOOKUP(MID($C28,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H28" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C28,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H28" t="s">
+        <v>254</v>
       </c>
       <c r="I28" t="s">
         <v>258</v>
@@ -2343,9 +2321,8 @@
         <f>_xlfn.XLOOKUP(MID($C29,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนล่าง</v>
       </c>
-      <c r="H29" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C29,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H29" t="s">
+        <v>254</v>
       </c>
       <c r="I29" t="s">
         <v>258</v>
@@ -2374,9 +2351,8 @@
         <f>_xlfn.XLOOKUP(MID($C30,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C30,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H30" t="s">
+        <v>254</v>
       </c>
       <c r="I30" t="s">
         <v>259</v>
@@ -2405,9 +2381,8 @@
         <f>_xlfn.XLOOKUP(MID($C31,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H31" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C31,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H31" t="s">
+        <v>254</v>
       </c>
       <c r="I31" t="s">
         <v>258</v>
@@ -2436,9 +2411,8 @@
         <f>_xlfn.XLOOKUP(MID($C32,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C32,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H32" t="s">
+        <v>254</v>
       </c>
       <c r="I32" t="s">
         <v>258</v>
@@ -2467,9 +2441,8 @@
         <f>_xlfn.XLOOKUP(MID($C33,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H33" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C33,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H33" t="s">
+        <v>254</v>
       </c>
       <c r="I33" t="s">
         <v>258</v>
@@ -2498,9 +2471,8 @@
         <f>_xlfn.XLOOKUP(MID($C34,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H34" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C34,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H34" t="s">
+        <v>254</v>
       </c>
       <c r="I34" t="s">
         <v>258</v>
@@ -2529,9 +2501,8 @@
         <f>_xlfn.XLOOKUP(MID($C35,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H35" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C35,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H35" t="s">
+        <v>254</v>
       </c>
       <c r="I35" t="s">
         <v>258</v>
@@ -2560,9 +2531,8 @@
         <f>_xlfn.XLOOKUP(MID($C36,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H36" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C36,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H36" t="s">
+        <v>254</v>
       </c>
       <c r="I36" t="s">
         <v>258</v>
@@ -2591,9 +2561,8 @@
         <f>_xlfn.XLOOKUP(MID($C37,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H37" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C37,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H37" t="s">
+        <v>254</v>
       </c>
       <c r="I37" t="s">
         <v>258</v>
@@ -2622,9 +2591,8 @@
         <f>_xlfn.XLOOKUP(MID($C38,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H38" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C38,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H38" t="s">
+        <v>254</v>
       </c>
       <c r="I38" t="s">
         <v>258</v>
@@ -2653,9 +2621,8 @@
         <f>_xlfn.XLOOKUP(MID($C39,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันออกเฉียงเหนือตอนบน</v>
       </c>
-      <c r="H39" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C39,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันออกเฉียงเหนือ</v>
+      <c r="H39" t="s">
+        <v>254</v>
       </c>
       <c r="I39" t="s">
         <v>258</v>
@@ -2684,9 +2651,8 @@
         <f>_xlfn.XLOOKUP(MID($C40,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H40" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C40,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H40" t="s">
+        <v>255</v>
       </c>
       <c r="I40" t="s">
         <v>259</v>
@@ -2715,9 +2681,8 @@
         <f>_xlfn.XLOOKUP(MID($C41,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H41" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C41,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H41" t="s">
+        <v>255</v>
       </c>
       <c r="I41" t="s">
         <v>258</v>
@@ -2746,9 +2711,8 @@
         <f>_xlfn.XLOOKUP(MID($C42,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H42" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C42,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H42" t="s">
+        <v>255</v>
       </c>
       <c r="I42" t="s">
         <v>258</v>
@@ -2777,9 +2741,8 @@
         <f>_xlfn.XLOOKUP(MID($C43,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H43" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C43,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H43" t="s">
+        <v>255</v>
       </c>
       <c r="I43" t="s">
         <v>258</v>
@@ -2808,9 +2771,8 @@
         <f>_xlfn.XLOOKUP(MID($C44,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H44" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C44,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H44" t="s">
+        <v>255</v>
       </c>
       <c r="I44" t="s">
         <v>258</v>
@@ -2839,9 +2801,8 @@
         <f>_xlfn.XLOOKUP(MID($C45,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H45" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C45,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H45" t="s">
+        <v>255</v>
       </c>
       <c r="I45" t="s">
         <v>258</v>
@@ -2870,9 +2831,8 @@
         <f>_xlfn.XLOOKUP(MID($C46,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H46" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C46,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H46" t="s">
+        <v>255</v>
       </c>
       <c r="I46" t="s">
         <v>258</v>
@@ -2901,9 +2861,8 @@
         <f>_xlfn.XLOOKUP(MID($C47,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H47" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C47,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H47" t="s">
+        <v>255</v>
       </c>
       <c r="I47" t="s">
         <v>258</v>
@@ -2932,9 +2891,8 @@
         <f>_xlfn.XLOOKUP(MID($C48,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนบน</v>
       </c>
-      <c r="H48" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C48,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H48" t="s">
+        <v>255</v>
       </c>
       <c r="I48" t="s">
         <v>258</v>
@@ -2963,9 +2921,8 @@
         <f>_xlfn.XLOOKUP(MID($C49,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H49" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C49,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H49" t="s">
+        <v>251</v>
       </c>
       <c r="I49" t="s">
         <v>258</v>
@@ -2994,9 +2951,8 @@
         <f>_xlfn.XLOOKUP(MID($C50,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H50" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C50,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H50" t="s">
+        <v>251</v>
       </c>
       <c r="I50" t="s">
         <v>258</v>
@@ -3025,9 +2981,8 @@
         <f>_xlfn.XLOOKUP(MID($C51,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H51" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C51,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H51" t="s">
+        <v>251</v>
       </c>
       <c r="I51" t="s">
         <v>258</v>
@@ -3056,9 +3011,8 @@
         <f>_xlfn.XLOOKUP(MID($C52,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H52" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C52,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H52" t="s">
+        <v>253</v>
       </c>
       <c r="I52" t="s">
         <v>258</v>
@@ -3087,9 +3041,8 @@
         <f>_xlfn.XLOOKUP(MID($C53,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H53" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C53,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H53" t="s">
+        <v>251</v>
       </c>
       <c r="I53" t="s">
         <v>258</v>
@@ -3118,9 +3071,8 @@
         <f>_xlfn.XLOOKUP(MID($C54,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H54" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C54,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H54" t="s">
+        <v>251</v>
       </c>
       <c r="I54" t="s">
         <v>258</v>
@@ -3149,9 +3101,8 @@
         <f>_xlfn.XLOOKUP(MID($C55,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H55" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C55,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H55" t="s">
+        <v>251</v>
       </c>
       <c r="I55" t="s">
         <v>258</v>
@@ -3180,9 +3131,8 @@
         <f>_xlfn.XLOOKUP(MID($C56,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคเหนือตอนล่าง</v>
       </c>
-      <c r="H56" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C56,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคเหนือ</v>
+      <c r="H56" t="s">
+        <v>251</v>
       </c>
       <c r="I56" t="s">
         <v>258</v>
@@ -3211,9 +3161,8 @@
         <f>_xlfn.XLOOKUP(MID($C57,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H57" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C57,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H57" t="s">
+        <v>253</v>
       </c>
       <c r="I57" t="s">
         <v>258</v>
@@ -3242,9 +3191,8 @@
         <f>_xlfn.XLOOKUP(MID($C58,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H58" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C58,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H58" t="s">
+        <v>253</v>
       </c>
       <c r="I58" t="s">
         <v>259</v>
@@ -3273,9 +3221,8 @@
         <f>_xlfn.XLOOKUP(MID($C59,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H59" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C59,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H59" t="s">
+        <v>251</v>
       </c>
       <c r="I59" t="s">
         <v>258</v>
@@ -3304,9 +3251,8 @@
         <f>_xlfn.XLOOKUP(MID($C60,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H60" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C60,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H60" t="s">
+        <v>251</v>
       </c>
       <c r="I60" t="s">
         <v>259</v>
@@ -3335,9 +3281,8 @@
         <f>_xlfn.XLOOKUP(MID($C61,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H61" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C61,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H61" t="s">
+        <v>251</v>
       </c>
       <c r="I61" t="s">
         <v>259</v>
@@ -3366,9 +3311,8 @@
         <f>_xlfn.XLOOKUP(MID($C62,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H62" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C62,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H62" t="s">
+        <v>251</v>
       </c>
       <c r="I62" t="s">
         <v>258</v>
@@ -3397,9 +3341,8 @@
         <f>_xlfn.XLOOKUP(MID($C63,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H63" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C63,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H63" t="s">
+        <v>253</v>
       </c>
       <c r="I63" t="s">
         <v>259</v>
@@ -3428,9 +3371,8 @@
         <f>_xlfn.XLOOKUP(MID($C64,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคตะวันตก</v>
       </c>
-      <c r="H64" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C64,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคตะวันตก</v>
+      <c r="H64" t="s">
+        <v>253</v>
       </c>
       <c r="I64" t="s">
         <v>259</v>
@@ -3459,9 +3401,8 @@
         <f>_xlfn.XLOOKUP(MID($C65,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H65" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C65,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H65" t="s">
+        <v>257</v>
       </c>
       <c r="I65" t="s">
         <v>258</v>
@@ -3490,9 +3431,8 @@
         <f>_xlfn.XLOOKUP(MID($C66,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H66" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C66,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H66" t="s">
+        <v>257</v>
       </c>
       <c r="I66" t="s">
         <v>259</v>
@@ -3521,9 +3461,8 @@
         <f>_xlfn.XLOOKUP(MID($C67,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H67" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C67,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H67" t="s">
+        <v>257</v>
       </c>
       <c r="I67" t="s">
         <v>259</v>
@@ -3552,9 +3491,8 @@
         <f>_xlfn.XLOOKUP(MID($C68,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H68" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C68,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H68" t="s">
+        <v>257</v>
       </c>
       <c r="I68" t="s">
         <v>259</v>
@@ -3583,9 +3521,8 @@
         <f>_xlfn.XLOOKUP(MID($C69,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H69" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C69,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H69" t="s">
+        <v>257</v>
       </c>
       <c r="I69" t="s">
         <v>259</v>
@@ -3614,9 +3551,8 @@
         <f>_xlfn.XLOOKUP(MID($C70,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H70" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C70,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H70" t="s">
+        <v>257</v>
       </c>
       <c r="I70" t="s">
         <v>258</v>
@@ -3645,9 +3581,8 @@
         <f>_xlfn.XLOOKUP(MID($C71,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนบน</v>
       </c>
-      <c r="H71" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C71,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H71" t="s">
+        <v>257</v>
       </c>
       <c r="I71" t="s">
         <v>258</v>
@@ -3676,9 +3611,8 @@
         <f>_xlfn.XLOOKUP(MID($C72,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H72" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C72,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H72" t="s">
+        <v>257</v>
       </c>
       <c r="I72" t="s">
         <v>259</v>
@@ -3707,9 +3641,8 @@
         <f>_xlfn.XLOOKUP(MID($C73,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H73" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C73,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H73" t="s">
+        <v>257</v>
       </c>
       <c r="I73" t="s">
         <v>258</v>
@@ -3738,9 +3671,8 @@
         <f>_xlfn.XLOOKUP(MID($C74,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H74" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C74,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H74" t="s">
+        <v>257</v>
       </c>
       <c r="I74" t="s">
         <v>258</v>
@@ -3769,9 +3701,8 @@
         <f>_xlfn.XLOOKUP(MID($C75,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H75" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C75,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H75" t="s">
+        <v>257</v>
       </c>
       <c r="I75" t="s">
         <v>258</v>
@@ -3800,9 +3731,8 @@
         <f>_xlfn.XLOOKUP(MID($C76,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H76" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C76,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H76" t="s">
+        <v>257</v>
       </c>
       <c r="I76" t="s">
         <v>258</v>
@@ -3831,9 +3761,8 @@
         <f>_xlfn.XLOOKUP(MID($C77,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H77" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C77,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H77" t="s">
+        <v>257</v>
       </c>
       <c r="I77" t="s">
         <v>258</v>
@@ -3862,15 +3791,15 @@
         <f>_xlfn.XLOOKUP(MID($C78,3,1),region!$B$3:$B$11,region!$C$3:$C$11)</f>
         <v>ภาคใต้ตอนล่าง</v>
       </c>
-      <c r="H78" s="1" t="str">
-        <f>_xlfn.XLOOKUP(MID($C78,3,1),region!$B$3:$B$11,region!$D$3:$D$11)</f>
-        <v>ภาคใต้</v>
+      <c r="H78" t="s">
+        <v>257</v>
       </c>
       <c r="I78" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I78" xr:uid="{AE1D748D-C36A-46A8-8C99-CC7E3AA763CF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3883,9 +3812,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="37.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
